--- a/public/assets/templates/PLANTILLA_COTIZACION_INICIAL.xlsx
+++ b/public/assets/templates/PLANTILLA_COTIZACION_INICIAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Proyectos\Probusiness\probusiness_intranetv2_back\public\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Proyectos\Probusiness\intranet_back\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEF3A72-E856-4B85-914D-0047ADAEF325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD777FF1-D300-4561-BF33-5173C2B0D393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{257BA261-74CC-4916-BA91-38C0DD91A292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{257BA261-74CC-4916-BA91-38C0DD91A292}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,22 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$K$113</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1685,11 +1697,125 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1708,120 +1834,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2905,11 +2917,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="2"/>
@@ -3233,18 +3242,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E786386-E8E9-4535-87BF-26316FC0121C}">
   <dimension ref="A1:Q113"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3263,7 +3272,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3282,16 +3291,16 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -3301,16 +3310,16 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3320,7 +3329,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3339,7 +3348,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3358,15 +3367,15 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3379,7 +3388,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -3398,12 +3407,12 @@
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="157">
+      <c r="I8" s="123">
         <f>+'2'!D5</f>
         <v>1</v>
       </c>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3411,7 +3420,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -3420,21 +3429,21 @@
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="158">
+      <c r="E9" s="124">
         <f ca="1">+TODAY()</f>
-        <v>45896</v>
-      </c>
-      <c r="F9" s="159"/>
+        <v>45897</v>
+      </c>
+      <c r="F9" s="125"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="160">
+      <c r="I9" s="126">
         <f>+'2'!D6</f>
         <v>1133</v>
       </c>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3442,7 +3451,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3484,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -3494,12 +3503,12 @@
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="161">
+      <c r="I11" s="127">
         <f>+'2'!D8</f>
         <v>1.075</v>
       </c>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
       <c r="L11" s="20"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3507,7 +3516,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3526,14 +3535,14 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="162" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="22"/>
@@ -3551,12 +3560,12 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="163" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="163"/>
-      <c r="C14" s="163"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3577,12 +3586,12 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="164" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -3603,7 +3612,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -3629,7 +3638,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3648,7 +3657,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3667,14 +3676,14 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="162" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -3694,7 +3703,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3725,7 +3734,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3756,7 +3765,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -3784,7 +3793,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>30</v>
       </c>
@@ -3813,7 +3822,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -3839,7 +3848,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3858,7 +3867,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>32</v>
       </c>
@@ -3886,7 +3895,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
@@ -3912,7 +3921,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3931,14 +3940,14 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="153" t="s">
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
@@ -3956,7 +3965,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -3982,7 +3991,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -4010,7 +4019,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>38</v>
       </c>
@@ -4036,7 +4045,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>39</v>
       </c>
@@ -4056,15 +4065,15 @@
         <v>21</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="127" t="s">
+      <c r="M33" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N33" s="133"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="133"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4077,95 +4086,95 @@
       <c r="J34" s="35"/>
       <c r="K34" s="26"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="128"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="129" t="s">
+      <c r="M34" s="134"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="134"/>
+      <c r="P34" s="134"/>
+      <c r="Q34" s="134"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="131"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="137"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="132" t="s">
+      <c r="M35" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="134" t="s">
+      <c r="N35" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="136" t="s">
+      <c r="O35" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="P35" s="138" t="s">
+      <c r="P35" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="Q35" s="140" t="s">
+      <c r="Q35" s="146" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="142" t="s">
+      <c r="B36" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="144"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="142" t="s">
+      <c r="F36" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="144"/>
+      <c r="G36" s="150"/>
       <c r="H36" s="43" t="s">
         <v>49</v>
       </c>
       <c r="I36" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="145" t="s">
+      <c r="J36" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="K36" s="145"/>
+      <c r="K36" s="151"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="135"/>
-      <c r="O36" s="137"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="141"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M36" s="139"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="147"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <v>1</v>
       </c>
-      <c r="B37" s="142" t="str">
+      <c r="B37" s="148" t="str">
         <f>+'2'!$C$11</f>
         <v>varillas cromadas dura</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="144"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="150"/>
       <c r="E37" s="42">
         <f>+'2'!$C$52</f>
         <v>300</v>
       </c>
-      <c r="F37" s="146">
+      <c r="F37" s="152">
         <f>+'2'!$C$15</f>
         <v>8.17</v>
       </c>
-      <c r="G37" s="147"/>
+      <c r="G37" s="153"/>
       <c r="H37" s="45">
         <f>+'2'!$C$53</f>
         <v>10.245283892281595</v>
@@ -4174,11 +4183,11 @@
         <f t="shared" ref="I37" si="0">+E37*H37</f>
         <v>3073.5851676844786</v>
       </c>
-      <c r="J37" s="145">
+      <c r="J37" s="151">
         <f>H37*3.8</f>
         <v>38.932078790670062</v>
       </c>
-      <c r="K37" s="145"/>
+      <c r="K37" s="151"/>
       <c r="L37" s="1"/>
       <c r="M37" s="39">
         <v>1</v>
@@ -4200,7 +4209,7 @@
         <v>38.932078790670062</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>34</v>
       </c>
@@ -4227,7 +4236,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="47"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -4240,17 +4249,17 @@
       <c r="J39" s="50"/>
       <c r="K39" s="51"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="148" t="s">
+      <c r="M39" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="N39" s="148"/>
-      <c r="O39" s="148"/>
-      <c r="P39" s="149" t="s">
+      <c r="N39" s="154"/>
+      <c r="O39" s="154"/>
+      <c r="P39" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="Q39" s="150"/>
-    </row>
-    <row r="40" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q39" s="156"/>
+    </row>
+    <row r="40" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="53" t="s">
         <v>53</v>
       </c>
@@ -4265,13 +4274,13 @@
       <c r="J40" s="3"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="148"/>
-      <c r="N40" s="148"/>
-      <c r="O40" s="148"/>
-      <c r="P40" s="151"/>
-      <c r="Q40" s="152"/>
-    </row>
-    <row r="41" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="M40" s="154"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="157"/>
+      <c r="Q40" s="158"/>
+    </row>
+    <row r="41" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A41" s="54" t="s">
         <v>54</v>
       </c>
@@ -4286,10 +4295,10 @@
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="119" t="s">
+      <c r="M41" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="N41" s="120"/>
+      <c r="N41" s="132"/>
       <c r="O41" s="55">
         <f>+J31</f>
         <v>0</v>
@@ -4299,7 +4308,7 @@
       </c>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A42" s="54" t="s">
         <v>57</v>
       </c>
@@ -4314,10 +4323,10 @@
       <c r="J42" s="3"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="119" t="s">
+      <c r="M42" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="N42" s="120"/>
+      <c r="N42" s="132"/>
       <c r="O42" s="55">
         <f>+J32</f>
         <v>553.47130000000004</v>
@@ -4327,7 +4336,7 @@
       </c>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="54" t="s">
         <v>60</v>
       </c>
@@ -4348,7 +4357,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="54" t="s">
         <v>61</v>
       </c>
@@ -4363,20 +4372,20 @@
       <c r="J44" s="3"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="121" t="s">
+      <c r="M44" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="N44" s="121"/>
-      <c r="O44" s="122">
+      <c r="N44" s="159"/>
+      <c r="O44" s="160">
         <f>+O41+O42+J14</f>
         <v>3004.4713000000002</v>
       </c>
-      <c r="P44" s="124" t="s">
+      <c r="P44" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="Q44" s="125"/>
-    </row>
-    <row r="45" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q44" s="163"/>
+    </row>
+    <row r="45" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="54" t="s">
         <v>64</v>
       </c>
@@ -4391,13 +4400,13 @@
       <c r="J45" s="3"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="121"/>
-      <c r="O45" s="123"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="125"/>
-    </row>
-    <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M45" s="159"/>
+      <c r="N45" s="159"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="162"/>
+      <c r="Q45" s="163"/>
+    </row>
+    <row r="46" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="54" t="s">
         <v>65</v>
       </c>
@@ -4418,7 +4427,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="54" t="s">
         <v>66</v>
       </c>
@@ -4439,7 +4448,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="54" t="s">
         <v>67</v>
       </c>
@@ -4460,7 +4469,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4479,7 +4488,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4498,7 +4507,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4517,7 +4526,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4536,7 +4545,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4555,7 +4564,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4574,7 +4583,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4593,20 +4602,20 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="126" t="s">
+    <row r="56" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="A56" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="164"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -4614,7 +4623,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4633,7 +4642,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4652,7 +4661,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4671,7 +4680,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="57" t="s">
         <v>69</v>
       </c>
@@ -4692,7 +4701,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="57" t="s">
         <v>70</v>
       </c>
@@ -4713,7 +4722,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
@@ -4734,7 +4743,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="57" t="s">
         <v>72</v>
       </c>
@@ -4755,7 +4764,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="57" t="s">
         <v>73</v>
       </c>
@@ -4776,7 +4785,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
@@ -4797,7 +4806,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="57" t="s">
         <v>75</v>
       </c>
@@ -4818,7 +4827,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="57" t="s">
         <v>76</v>
       </c>
@@ -4839,7 +4848,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="57" t="s">
         <v>77</v>
       </c>
@@ -4860,7 +4869,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="57" t="s">
         <v>78</v>
       </c>
@@ -4881,7 +4890,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="57" t="s">
         <v>79</v>
       </c>
@@ -4902,7 +4911,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="57" t="s">
         <v>80</v>
       </c>
@@ -4923,7 +4932,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="57" t="s">
         <v>81</v>
       </c>
@@ -4944,7 +4953,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="57" t="s">
         <v>82</v>
       </c>
@@ -4965,7 +4974,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4984,7 +4993,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5003,7 +5012,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5022,7 +5031,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="57" t="s">
         <v>83</v>
       </c>
@@ -5043,7 +5052,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="58" t="s">
         <v>84</v>
       </c>
@@ -5064,7 +5073,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="57" t="s">
         <v>85</v>
       </c>
@@ -5085,7 +5094,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="59" t="s">
         <v>86</v>
       </c>
@@ -5106,7 +5115,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="57" t="s">
         <v>87</v>
       </c>
@@ -5127,7 +5136,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="24" t="s">
         <v>88</v>
       </c>
@@ -5148,7 +5157,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="57" t="s">
         <v>89</v>
       </c>
@@ -5169,7 +5178,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="57" t="s">
         <v>90</v>
       </c>
@@ -5190,7 +5199,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="57" t="s">
         <v>91</v>
       </c>
@@ -5211,7 +5220,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="57" t="s">
         <v>92</v>
       </c>
@@ -5232,7 +5241,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="57" t="s">
         <v>93</v>
       </c>
@@ -5253,7 +5262,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5272,7 +5281,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5291,7 +5300,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5310,7 +5319,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="57" t="s">
         <v>94</v>
       </c>
@@ -5331,7 +5340,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="57" t="s">
         <v>95</v>
       </c>
@@ -5352,7 +5361,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="60" t="s">
         <v>96</v>
       </c>
@@ -5373,7 +5382,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="60" t="s">
         <v>97</v>
       </c>
@@ -5394,7 +5403,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="60" t="s">
         <v>98</v>
       </c>
@@ -5415,7 +5424,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5434,7 +5443,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5453,7 +5462,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5472,7 +5481,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5491,7 +5500,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="60"/>
       <c r="C100" s="1"/>
@@ -5510,7 +5519,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="61"/>
       <c r="C101" s="1"/>
@@ -5529,7 +5538,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="61"/>
       <c r="C102" s="1"/>
@@ -5548,7 +5557,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5567,7 +5576,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="48"/>
@@ -5586,7 +5595,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="48"/>
@@ -5605,7 +5614,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5624,7 +5633,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="34"/>
@@ -5643,7 +5652,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5662,7 +5671,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="62"/>
       <c r="C109" s="1"/>
@@ -5681,7 +5690,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5700,7 +5709,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5719,7 +5728,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5738,7 +5747,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5759,18 +5768,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:Q45"/>
+    <mergeCell ref="A56:K56"/>
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="M33:Q34"/>
     <mergeCell ref="A35:K35"/>
@@ -5787,11 +5789,18 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="M39:O40"/>
     <mergeCell ref="P39:Q40"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:Q45"/>
-    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11" xr:uid="{775CAE99-E7F4-4AE4-A212-83F2D488659D}">
@@ -5802,7 +5811,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5810,19 +5820,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A823ABF7-BCCA-45EB-B3E0-134BA949F2DB}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="165" t="s">
         <v>99</v>
@@ -5842,7 +5852,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -5860,7 +5870,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -5880,7 +5890,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="64" t="s">
         <v>101</v>
@@ -5905,7 +5915,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -5930,7 +5940,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="64" t="s">
         <v>102</v>
@@ -5955,7 +5965,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="68" t="s">
         <v>12</v>
@@ -5975,7 +5985,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="64" t="s">
         <v>103</v>
@@ -6000,7 +6010,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="71"/>
       <c r="C9" s="34"/>
@@ -6018,7 +6028,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="73">
@@ -6038,7 +6048,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="74" t="s">
         <v>104</v>
@@ -6062,7 +6072,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="43" t="s">
         <v>106</v>
@@ -6085,7 +6095,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="43" t="s">
         <v>102</v>
@@ -6108,7 +6118,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="43" t="s">
         <v>107</v>
@@ -6131,7 +6141,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="80" t="s">
         <v>108</v>
@@ -6153,7 +6163,7 @@
       <c r="O15" s="82"/>
       <c r="P15" s="82"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="83" t="s">
         <v>109</v>
@@ -6184,7 +6194,7 @@
       </c>
       <c r="P16" s="82"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="87" t="s">
         <v>47</v>
@@ -6221,7 +6231,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="90" t="s">
         <v>110</v>
@@ -6259,7 +6269,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="92" t="s">
         <v>110</v>
@@ -6297,7 +6307,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="43" t="s">
         <v>111</v>
@@ -6334,7 +6344,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="87" t="s">
         <v>112</v>
@@ -6372,7 +6382,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="90" t="s">
         <v>113</v>
@@ -6406,7 +6416,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="92" t="s">
         <v>115</v>
@@ -6432,7 +6442,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="87" t="s">
         <v>116</v>
@@ -6458,7 +6468,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="90" t="s">
         <v>23</v>
@@ -6484,7 +6494,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="92" t="s">
         <v>117</v>
@@ -6510,7 +6520,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="34"/>
@@ -6528,7 +6538,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="169" t="s">
         <v>118</v>
@@ -6548,7 +6558,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="34"/>
@@ -6566,7 +6576,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="99"/>
@@ -6584,7 +6594,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="100" t="s">
         <v>30</v>
@@ -6610,7 +6620,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="34"/>
@@ -6628,7 +6638,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="102">
@@ -6650,7 +6660,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="103" t="s">
         <v>119</v>
@@ -6676,7 +6686,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="105"/>
       <c r="B35" s="106" t="s">
         <v>120</v>
@@ -6702,7 +6712,7 @@
       <c r="O35" s="105"/>
       <c r="P35" s="105"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="105"/>
       <c r="B36" s="106" t="s">
         <v>121</v>
@@ -6728,7 +6738,7 @@
       <c r="O36" s="105"/>
       <c r="P36" s="105"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="105"/>
       <c r="B37" s="106" t="s">
         <v>122</v>
@@ -6754,7 +6764,7 @@
       <c r="O37" s="105"/>
       <c r="P37" s="105"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="108" t="s">
         <v>34</v>
@@ -6780,7 +6790,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="34"/>
@@ -6798,7 +6808,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="34"/>
@@ -6820,7 +6830,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="34"/>
@@ -6838,7 +6848,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" s="171" t="s">
         <v>124</v>
       </c>
@@ -6859,7 +6869,7 @@
       <c r="Q42" s="171"/>
       <c r="R42" s="171"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -6878,7 +6888,7 @@
       <c r="Q43" s="34"/>
       <c r="R43" s="34"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="112">
         <f>+C20</f>
@@ -6897,7 +6907,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B45" s="87" t="s">
         <v>125</v>
       </c>
@@ -6918,7 +6928,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="111"/>
       <c r="D46" s="111"/>
@@ -6937,7 +6947,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -6956,7 +6966,7 @@
       <c r="Q47" s="34"/>
       <c r="R47" s="34"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B48" s="114" t="s">
         <v>126</v>
       </c>
@@ -6977,7 +6987,7 @@
       <c r="Q48" s="114"/>
       <c r="R48" s="114"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -6996,7 +7006,7 @@
       <c r="Q49" s="34"/>
       <c r="R49" s="34"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="115" t="s">
         <v>125</v>
       </c>
@@ -7018,7 +7028,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="87" t="s">
         <v>127</v>
       </c>
@@ -7039,7 +7049,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="43" t="s">
         <v>47</v>
       </c>
@@ -7061,7 +7071,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="117" t="s">
         <v>128</v>
       </c>
@@ -7083,7 +7093,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B54" s="43" t="s">
         <v>129</v>
       </c>
